--- a/medicine/Enfance/Fantômette_et_la_Maison_hantée/Fantômette_et_la_Maison_hantée.xlsx
+++ b/medicine/Enfance/Fantômette_et_la_Maison_hantée/Fantômette_et_la_Maison_hantée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Maison_hant%C3%A9e</t>
+          <t>Fantômette_et_la_Maison_hantée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette et la Maison hantée est le 17e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Maison_hant%C3%A9e</t>
+          <t>Fantômette_et_la_Maison_hantée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette et la Maison hantée a donc pu être vendu à environ 200000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Maison_hant%C3%A9e</t>
+          <t>Fantômette_et_la_Maison_hantée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Maison_hant%C3%A9e</t>
+          <t>Fantômette_et_la_Maison_hantée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1971 en langue française.
 Mise en place de l'intrigue (chapitres 1 à 6)
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Maison_hant%C3%A9e</t>
+          <t>Fantômette_et_la_Maison_hantée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,9 +646,11 @@
           <t>Appréciation critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Bannier, dans son essai Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette[3], indique en page 142 :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Bannier, dans son essai Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette, indique en page 142 :
 « Encore une aventure jugée très « lupinesque » par son auteur. Il est vrai qu’elle dévoile les capacités de transfiguration et de déguisement du Furet, avec au passage une vision acide du milieu de l'art contemporain. Pour l’artiste modo-croate Popovitch, l'auteur s'était d'ailleurs largement inspiré de Salvador Dalí. »
 </t>
         </is>
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Maison_hant%C3%A9e</t>
+          <t>Fantômette_et_la_Maison_hantée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,7 +680,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau L'Indifférent (1717) d'Antoine Watteau, qui fut volé en juin 1939 puis restitué en août de la même année, est cité dans le roman au chapitre VIII (page 102) de la première édition. Évoquant les visiteurs qui, après le vol du tableau L'Indifférent, étaient venus spécialement au musée du Louvre pour en contempler l'emplacement vide, l'auteur fait une analogie avec les visiteurs qui viennent au musée d'art moderne de Framboisy pour contempler les emplacements vides des trois tableaux de Popovitch volés par le Furet.
 </t>
